--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_6_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1780014.93034698</v>
+        <v>1777090.957373602</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7829813.321549097</v>
+        <v>8127978.472490735</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10531507.3721801</v>
+        <v>10520415.70168902</v>
       </c>
     </row>
     <row r="11">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,7 +674,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>115.9738437752621</v>
       </c>
       <c r="T2" t="n">
-        <v>36.80453676746914</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>18.3768222575565</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>163.9206648785247</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>20.52965284373308</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1108,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.7486215059533</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>5.98338819131895</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.715333384834549</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>52.07852635745772</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>215.0276763784376</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534539</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.7389995830101</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>270.0697021486467</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,10 +2011,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>7.73054904894758</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>98.17502158542678</v>
       </c>
     </row>
     <row r="20">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>203.4068132192027</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.827044276916</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>36.15999212057508</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>206.9269695466845</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.8551629906984</v>
+        <v>410.4392558178623</v>
       </c>
       <c r="H26" t="n">
-        <v>293.9260795173801</v>
+        <v>289.6666701835672</v>
       </c>
       <c r="I26" t="n">
-        <v>39.01077271706092</v>
+        <v>22.976511436278</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>107.6709651106446</v>
+        <v>98.19348040963061</v>
       </c>
       <c r="T26" t="n">
-        <v>203.6265920834098</v>
+        <v>201.8059584343176</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9898469458816</v>
+        <v>250.9565743720546</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.9638550013859</v>
+        <v>134.7413250456554</v>
       </c>
       <c r="H27" t="n">
-        <v>89.25291756834666</v>
+        <v>87.10374668010786</v>
       </c>
       <c r="I27" t="n">
-        <v>17.5910292529628</v>
+        <v>9.929361917506554</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>127.4819901594171</v>
+        <v>123.3485938325818</v>
       </c>
       <c r="T27" t="n">
-        <v>190.5730202443086</v>
+        <v>189.6760683613424</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7848253598021</v>
+        <v>225.7701852311357</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2716,22 +2716,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>76.20388762238746</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.9959505400178</v>
+        <v>165.8093889003991</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.8308500712363</v>
       </c>
       <c r="I28" t="n">
-        <v>95.45451736905196</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.58964104981509</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.248686719233</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>218.6242483802084</v>
       </c>
       <c r="U28" t="n">
-        <v>24.68865279475989</v>
+        <v>286.200033513324</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.8551629906984</v>
+        <v>410.4392558178618</v>
       </c>
       <c r="H29" t="n">
-        <v>293.9260795173802</v>
+        <v>289.6666701835674</v>
       </c>
       <c r="I29" t="n">
-        <v>39.01077271706126</v>
+        <v>22.97651143627829</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>107.6709651106448</v>
+        <v>98.19348040963078</v>
       </c>
       <c r="T29" t="n">
-        <v>203.6265920834099</v>
+        <v>201.8059584343176</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9898469458816</v>
+        <v>250.9565743720546</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.9638550013859</v>
+        <v>134.7413250456554</v>
       </c>
       <c r="H30" t="n">
-        <v>89.2529175683467</v>
+        <v>87.10374668010789</v>
       </c>
       <c r="I30" t="n">
-        <v>17.59102925296295</v>
+        <v>9.929361917506682</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>127.4819901594172</v>
+        <v>123.3485938325819</v>
       </c>
       <c r="T30" t="n">
-        <v>190.5730202443086</v>
+        <v>189.6760683613425</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7848253598021</v>
+        <v>225.7701852311357</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>136.6215562267316</v>
+        <v>142.8308500712363</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>79.20115132659573</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>185.9974261451506</v>
       </c>
       <c r="T31" t="n">
-        <v>219.4213753858519</v>
+        <v>19.66568900442633</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2102096027577</v>
+        <v>286.200033513324</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.8551629906984</v>
+        <v>410.4392558178618</v>
       </c>
       <c r="H32" t="n">
-        <v>293.9260795173802</v>
+        <v>289.6666701835672</v>
       </c>
       <c r="I32" t="n">
-        <v>39.01077271706126</v>
+        <v>22.976511436278</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>107.6709651106448</v>
+        <v>98.19348040963061</v>
       </c>
       <c r="T32" t="n">
-        <v>203.6265920834099</v>
+        <v>201.8059584343176</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9898469458816</v>
+        <v>250.9565743720546</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.9638550013859</v>
+        <v>134.7413250456554</v>
       </c>
       <c r="H33" t="n">
-        <v>89.2529175683467</v>
+        <v>87.10374668010786</v>
       </c>
       <c r="I33" t="n">
-        <v>17.59102925296295</v>
+        <v>9.929361917506554</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>127.4819901594172</v>
+        <v>123.3485938325818</v>
       </c>
       <c r="T33" t="n">
-        <v>190.5730202443086</v>
+        <v>189.6760683613424</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7848253598021</v>
+        <v>225.7701852311357</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.9959505400178</v>
+        <v>165.8093889003991</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,25 +3232,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>27.35425442988215</v>
+        <v>79.20115132659559</v>
       </c>
       <c r="S34" t="n">
-        <v>189.2486867192331</v>
+        <v>185.9974261451505</v>
       </c>
       <c r="T34" t="n">
-        <v>219.4213753858519</v>
+        <v>218.6242483802084</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2102096027577</v>
+        <v>286.200033513324</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>137.6469378935987</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
-        <v>365.1631028869117</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.50280171672377</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.7221912978414</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.137032214532</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>29.15873169436862</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.3112591388354</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.4322639930711</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.3442009078581</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>56.17490305427315</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V37" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.4748644679989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.6240527793847</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.1631028869117</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.5732527365871</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.8205811881659</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.7662568576156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.7334871286617</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.4533031204485</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.50280171672377</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0872679533783</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.7991071035505</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
-        <v>327.6424695860391</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.1311798333172</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.6213117943732</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.1281497719577</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.7221912978414</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>93.30736086638571</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.4322639930711</v>
+        <v>36.53032011471324</v>
       </c>
       <c r="H40" t="n">
-        <v>140.3442009078581</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.0709627069877</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.2286994743631</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>217.372205578666</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>286.0756626643246</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
-        <v>252.0278544397322</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.4132094524952</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.5998665049413</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.4748644679989</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3752,10 +3752,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045434</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,10 +3831,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>83.55410938283603</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545298</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898976</v>
+        <v>154.7370575672668</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.1518984839573</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>123.5205504035418</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>121.3390400318986</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>120.3261254082607</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>140.4471302624964</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>115.3590671772834</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652578</v>
+        <v>56.70965412973848</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.08582897641301</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096049</v>
+        <v>156.2435657437884</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>192.3870718480913</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.0905289337499</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317883</v>
+        <v>227.0427207091575</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>261.4280757219204</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>200.6147327743666</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.3000058600551</v>
+        <v>193.4897307374243</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2580.003794275533</v>
       </c>
       <c r="T2" t="n">
-        <v>2483.795303567272</v>
+        <v>2361.369127247596</v>
       </c>
       <c r="U2" t="n">
-        <v>2483.795303567272</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V2" t="n">
-        <v>2152.732416223701</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W2" t="n">
-        <v>1799.963760953587</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X2" t="n">
-        <v>1426.498002692507</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1036.358670716696</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064342</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>728.1289842064342</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>709.5665374816297</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>609.3508327416157</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>240.388315801204</v>
+        <v>1710.380556858352</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>966.3266056533573</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>555.3407008637498</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>995.9506728057374</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4644,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>325.6879402326643</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>156.7517573047574</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4756,19 +4756,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>808.083928634017</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>439.1214116936052</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>80.85571308685473</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>80.85571308685473</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177354</v>
+        <v>73.91021233765126</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>59.98680827624217</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036444</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748108</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772296</v>
+        <v>1194.683768698139</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.9086980046677</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9725150767608</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8558756644251</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036444</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5024,7 +5024,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5039,25 +5039,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P11" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5094,19 +5094,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
         <v>205.0702204089889</v>
@@ -5121,7 +5121,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
         <v>794.2006632320243</v>
@@ -5136,22 +5136,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
         <v>1808.657265216076</v>
@@ -5160,10 +5160,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.8112129900687</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C13" t="n">
-        <v>612.8750300621617</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>462.758390649826</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>462.758390649826</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>315.8684431519156</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>148.1656065266345</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1656065266345</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5218,31 +5218,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S13" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T13" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1956.343466104704</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V13" t="n">
-        <v>1701.658977898817</v>
+        <v>999.1036114208123</v>
       </c>
       <c r="W13" t="n">
-        <v>1412.241807861856</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X13" t="n">
-        <v>1184.252256963839</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.4596778203085</v>
+        <v>264.4972173763013</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972665</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
         <v>1482.778354750621</v>
@@ -5288,16 +5288,16 @@
         <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807097</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
         <v>114.5683260468565</v>
@@ -5355,13 +5355,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193584</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.56103444839442</v>
+        <v>781.8112129900687</v>
       </c>
       <c r="C16" t="n">
-        <v>95.56103444839442</v>
+        <v>612.8750300621618</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839442</v>
+        <v>462.7583906498261</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839442</v>
+        <v>314.845297067433</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839442</v>
+        <v>314.845297067433</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839442</v>
+        <v>314.845297067433</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5440,7 +5440,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,7 +5449,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>1701.658977898817</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201815</v>
+        <v>1412.241807861856</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221641</v>
+        <v>1184.252256963839</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.209499278634</v>
+        <v>963.4596778203085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5519,22 +5519,22 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5546,19 +5546,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="18">
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>582.3166934139181</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3805104860112</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E19" t="n">
-        <v>263.2638710736754</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F19" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5671,10 +5671,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5698,25 +5698,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U19" t="n">
-        <v>1756.848946528553</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V19" t="n">
-        <v>1502.164458322666</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W19" t="n">
-        <v>1212.747288285705</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X19" t="n">
-        <v>984.7577373876877</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y19" t="n">
-        <v>763.9651582441577</v>
+        <v>574.2160861888802</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
         <v>2005.253839749764</v>
@@ -5735,13 +5735,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5753,31 +5753,31 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>786.6724891157187</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1237.706702364128</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5786,16 +5786,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="21">
@@ -5832,10 +5832,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607302</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
         <v>95.56103444839442</v>
@@ -5923,7 +5923,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
@@ -5938,22 +5938,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>709.686441383852</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858346</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>427.3261386909699</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5990,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>753.1470291944245</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1617.665844847779</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2151.197749519704</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N23" t="n">
-        <v>3130.950021746351</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O23" t="n">
-        <v>4010.914672075805</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>192.8867116300491</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6148,10 +6148,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1919.818221538466</v>
       </c>
       <c r="S25" t="n">
-        <v>1866.513008862231</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.746393431757</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U25" t="n">
-        <v>1355.643526557401</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V25" t="n">
-        <v>1100.959038351514</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W25" t="n">
-        <v>811.5418683145531</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X25" t="n">
-        <v>583.5523174165357</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y25" t="n">
-        <v>374.5351764602888</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2370.762765076595</v>
+        <v>2349.183497290664</v>
       </c>
       <c r="C26" t="n">
-        <v>2001.800248136184</v>
+        <v>1980.220980350252</v>
       </c>
       <c r="D26" t="n">
-        <v>1643.534549529434</v>
+        <v>1621.955281743502</v>
       </c>
       <c r="E26" t="n">
-        <v>1257.74629693119</v>
+        <v>1236.167029145258</v>
       </c>
       <c r="F26" t="n">
-        <v>846.7603921415821</v>
+        <v>825.1811243556499</v>
       </c>
       <c r="G26" t="n">
-        <v>431.7551769994619</v>
+        <v>410.5960174689207</v>
       </c>
       <c r="H26" t="n">
-        <v>134.8601471839265</v>
+        <v>118.0034213239033</v>
       </c>
       <c r="I26" t="n">
-        <v>95.45532625760238</v>
+        <v>94.79482391352145</v>
       </c>
       <c r="J26" t="n">
-        <v>457.3330348070094</v>
+        <v>324.2134888390101</v>
       </c>
       <c r="K26" t="n">
-        <v>1112.305420748681</v>
+        <v>718.7911151545093</v>
       </c>
       <c r="L26" t="n">
-        <v>1987.22328293073</v>
+        <v>1245.20131339725</v>
       </c>
       <c r="M26" t="n">
-        <v>2977.344528705486</v>
+        <v>2307.621922930726</v>
       </c>
       <c r="N26" t="n">
-        <v>3535.881518663093</v>
+        <v>3303.942952554166</v>
       </c>
       <c r="O26" t="n">
-        <v>4049.956898788261</v>
+        <v>3887.393255549934</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.207341311872</v>
+        <v>4350.853589698035</v>
       </c>
       <c r="Q26" t="n">
-        <v>4709.609841627671</v>
+        <v>4650.720252767384</v>
       </c>
       <c r="R26" t="n">
-        <v>4772.766312880119</v>
+        <v>4739.741195676072</v>
       </c>
       <c r="S26" t="n">
-        <v>4664.007762263305</v>
+        <v>4640.55586192897</v>
       </c>
       <c r="T26" t="n">
-        <v>4458.324335916427</v>
+        <v>4436.711459470063</v>
       </c>
       <c r="U26" t="n">
-        <v>4204.799237991294</v>
+        <v>4183.219970205362</v>
       </c>
       <c r="V26" t="n">
-        <v>3873.736350647723</v>
+        <v>3852.157082861791</v>
       </c>
       <c r="W26" t="n">
-        <v>3520.967695377609</v>
+        <v>3499.388427591677</v>
       </c>
       <c r="X26" t="n">
-        <v>3147.501937116529</v>
+        <v>3125.922669330597</v>
       </c>
       <c r="Y26" t="n">
-        <v>2757.362605140717</v>
+        <v>2735.783337354786</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>968.8650830499606</v>
+        <v>958.0698653731266</v>
       </c>
       <c r="C27" t="n">
-        <v>794.4120537688336</v>
+        <v>783.6168360919996</v>
       </c>
       <c r="D27" t="n">
-        <v>645.4776441075824</v>
+        <v>634.6824264307484</v>
       </c>
       <c r="E27" t="n">
-        <v>486.2401891021269</v>
+        <v>475.4449714252929</v>
       </c>
       <c r="F27" t="n">
-        <v>339.7056311290119</v>
+        <v>328.9104134521779</v>
       </c>
       <c r="G27" t="n">
-        <v>203.3785048649857</v>
+        <v>192.8080649212128</v>
       </c>
       <c r="H27" t="n">
-        <v>113.2240426747365</v>
+        <v>104.8244824160533</v>
       </c>
       <c r="I27" t="n">
-        <v>95.45532625760238</v>
+        <v>94.79482391352145</v>
       </c>
       <c r="J27" t="n">
-        <v>192.4637056891322</v>
+        <v>212.6171621109535</v>
       </c>
       <c r="K27" t="n">
-        <v>436.421302129884</v>
+        <v>492.149129281208</v>
       </c>
       <c r="L27" t="n">
-        <v>810.7749379369495</v>
+        <v>502.1720640334745</v>
       </c>
       <c r="M27" t="n">
-        <v>1266.984841975779</v>
+        <v>1014.20214345442</v>
       </c>
       <c r="N27" t="n">
-        <v>1749.677909595327</v>
+        <v>1554.192780400333</v>
       </c>
       <c r="O27" t="n">
-        <v>2169.027969523324</v>
+        <v>2025.958922273175</v>
       </c>
       <c r="P27" t="n">
-        <v>2486.26029692661</v>
+        <v>2385.259776520612</v>
       </c>
       <c r="Q27" t="n">
-        <v>2591.414851438366</v>
+        <v>2575.523685944898</v>
       </c>
       <c r="R27" t="n">
-        <v>2591.414851438366</v>
+        <v>2575.523685944898</v>
       </c>
       <c r="S27" t="n">
-        <v>2462.645164408652</v>
+        <v>2450.929146720068</v>
       </c>
       <c r="T27" t="n">
-        <v>2270.147164161876</v>
+        <v>2259.337158476288</v>
       </c>
       <c r="U27" t="n">
-        <v>2042.08168400046</v>
+        <v>2031.286466323626</v>
       </c>
       <c r="V27" t="n">
-        <v>1806.929575768717</v>
+        <v>1796.134358091883</v>
       </c>
       <c r="W27" t="n">
-        <v>1552.692219040515</v>
+        <v>1541.897001363681</v>
       </c>
       <c r="X27" t="n">
-        <v>1344.840718834982</v>
+        <v>1334.045501158148</v>
       </c>
       <c r="Y27" t="n">
-        <v>1137.080420070029</v>
+        <v>1126.285202393195</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.4366554818459</v>
+        <v>483.526264917585</v>
       </c>
       <c r="C28" t="n">
-        <v>506.4366554818459</v>
+        <v>483.526264917585</v>
       </c>
       <c r="D28" t="n">
-        <v>506.4366554818459</v>
+        <v>406.5526410565875</v>
       </c>
       <c r="E28" t="n">
-        <v>506.4366554818459</v>
+        <v>406.5526410565875</v>
       </c>
       <c r="F28" t="n">
-        <v>359.5467079839354</v>
+        <v>406.5526410565875</v>
       </c>
       <c r="G28" t="n">
-        <v>191.8740306707862</v>
+        <v>239.0684098440632</v>
       </c>
       <c r="H28" t="n">
-        <v>191.8740306707862</v>
+        <v>94.79482391352145</v>
       </c>
       <c r="I28" t="n">
-        <v>95.45532625760238</v>
+        <v>94.79482391352145</v>
       </c>
       <c r="J28" t="n">
-        <v>142.6677900312345</v>
+        <v>155.0652965289859</v>
       </c>
       <c r="K28" t="n">
-        <v>350.0892078206896</v>
+        <v>383.9450341073851</v>
       </c>
       <c r="L28" t="n">
-        <v>671.0436444994536</v>
+        <v>732.3587322750689</v>
       </c>
       <c r="M28" t="n">
-        <v>1019.834219939073</v>
+        <v>1110.101248882197</v>
       </c>
       <c r="N28" t="n">
-        <v>1365.765951501859</v>
+        <v>1484.2965091623</v>
       </c>
       <c r="O28" t="n">
-        <v>1669.273600758839</v>
+        <v>1813.910101774405</v>
       </c>
       <c r="P28" t="n">
-        <v>1905.456145035931</v>
+        <v>2072.430790532882</v>
       </c>
       <c r="Q28" t="n">
-        <v>1985.54161623669</v>
+        <v>2167.982035096393</v>
       </c>
       <c r="R28" t="n">
-        <v>1897.067231337887</v>
+        <v>2167.982035096393</v>
       </c>
       <c r="S28" t="n">
-        <v>1705.906941722501</v>
+        <v>2167.982035096393</v>
       </c>
       <c r="T28" t="n">
-        <v>1705.906941722501</v>
+        <v>1947.14946097497</v>
       </c>
       <c r="U28" t="n">
-        <v>1680.968908596481</v>
+        <v>1658.058518032219</v>
       </c>
       <c r="V28" t="n">
-        <v>1426.284420390594</v>
+        <v>1403.374029826332</v>
       </c>
       <c r="W28" t="n">
-        <v>1136.867250353633</v>
+        <v>1113.956859789371</v>
       </c>
       <c r="X28" t="n">
-        <v>908.8776994556158</v>
+        <v>885.9673088913539</v>
       </c>
       <c r="Y28" t="n">
-        <v>688.0851203120857</v>
+        <v>665.1747297478238</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2370.762765076596</v>
+        <v>2349.183497290664</v>
       </c>
       <c r="C29" t="n">
-        <v>2001.800248136185</v>
+        <v>1980.220980350252</v>
       </c>
       <c r="D29" t="n">
-        <v>1643.534549529435</v>
+        <v>1621.955281743502</v>
       </c>
       <c r="E29" t="n">
-        <v>1257.74629693119</v>
+        <v>1236.167029145258</v>
       </c>
       <c r="F29" t="n">
-        <v>846.760392141583</v>
+        <v>825.1811243556499</v>
       </c>
       <c r="G29" t="n">
-        <v>431.7551769994624</v>
+        <v>410.5960174689208</v>
       </c>
       <c r="H29" t="n">
-        <v>134.8601471839269</v>
+        <v>118.0034213239036</v>
       </c>
       <c r="I29" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352145</v>
       </c>
       <c r="J29" t="n">
-        <v>289.9273857866555</v>
+        <v>324.2134888390095</v>
       </c>
       <c r="K29" t="n">
-        <v>632.1291095858073</v>
+        <v>718.7911151545077</v>
       </c>
       <c r="L29" t="n">
-        <v>1489.190572088622</v>
+        <v>1245.201313397247</v>
       </c>
       <c r="M29" t="n">
-        <v>2479.311817863376</v>
+        <v>2307.621922930722</v>
       </c>
       <c r="N29" t="n">
-        <v>3470.822262988846</v>
+        <v>3303.94295255417</v>
       </c>
       <c r="O29" t="n">
-        <v>3984.897643114012</v>
+        <v>3887.393255549936</v>
       </c>
       <c r="P29" t="n">
-        <v>4389.148085637622</v>
+        <v>4350.853589698037</v>
       </c>
       <c r="Q29" t="n">
-        <v>4644.55058595342</v>
+        <v>4650.720252767385</v>
       </c>
       <c r="R29" t="n">
-        <v>4772.76631288012</v>
+        <v>4739.741195676072</v>
       </c>
       <c r="S29" t="n">
-        <v>4664.007762263307</v>
+        <v>4640.55586192897</v>
       </c>
       <c r="T29" t="n">
-        <v>4458.324335916428</v>
+        <v>4436.711459470063</v>
       </c>
       <c r="U29" t="n">
-        <v>4204.799237991295</v>
+        <v>4183.219970205362</v>
       </c>
       <c r="V29" t="n">
-        <v>3873.736350647724</v>
+        <v>3852.157082861791</v>
       </c>
       <c r="W29" t="n">
-        <v>3520.96769537761</v>
+        <v>3499.388427591677</v>
       </c>
       <c r="X29" t="n">
-        <v>3147.50193711653</v>
+        <v>3125.922669330597</v>
       </c>
       <c r="Y29" t="n">
-        <v>2757.362605140718</v>
+        <v>2735.783337354786</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>968.8650830499608</v>
+        <v>958.0698653731268</v>
       </c>
       <c r="C30" t="n">
-        <v>794.4120537688339</v>
+        <v>783.6168360919999</v>
       </c>
       <c r="D30" t="n">
-        <v>645.4776441075826</v>
+        <v>634.6824264307486</v>
       </c>
       <c r="E30" t="n">
-        <v>486.240189102127</v>
+        <v>475.444971425293</v>
       </c>
       <c r="F30" t="n">
-        <v>339.705631129012</v>
+        <v>328.910413452178</v>
       </c>
       <c r="G30" t="n">
-        <v>203.3785048649859</v>
+        <v>192.8080649212129</v>
       </c>
       <c r="H30" t="n">
-        <v>113.2240426747367</v>
+        <v>104.8244824160535</v>
       </c>
       <c r="I30" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352145</v>
       </c>
       <c r="J30" t="n">
-        <v>192.4637056891318</v>
+        <v>212.6171621109531</v>
       </c>
       <c r="K30" t="n">
-        <v>436.4213021298827</v>
+        <v>492.1491292812071</v>
       </c>
       <c r="L30" t="n">
-        <v>810.7749379369473</v>
+        <v>914.3368966841117</v>
       </c>
       <c r="M30" t="n">
-        <v>1266.984841975775</v>
+        <v>1426.366976105056</v>
       </c>
       <c r="N30" t="n">
-        <v>1749.677909595322</v>
+        <v>1966.357613050968</v>
       </c>
       <c r="O30" t="n">
-        <v>2169.027969523318</v>
+        <v>2438.123754923809</v>
       </c>
       <c r="P30" t="n">
-        <v>2429.272638124885</v>
+        <v>2438.123754923809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2591.414851438367</v>
+        <v>2575.523685944899</v>
       </c>
       <c r="R30" t="n">
-        <v>2591.414851438367</v>
+        <v>2575.523685944899</v>
       </c>
       <c r="S30" t="n">
-        <v>2462.645164408652</v>
+        <v>2450.929146720068</v>
       </c>
       <c r="T30" t="n">
-        <v>2270.147164161876</v>
+        <v>2259.337158476288</v>
       </c>
       <c r="U30" t="n">
-        <v>2042.08168400046</v>
+        <v>2031.286466323626</v>
       </c>
       <c r="V30" t="n">
-        <v>1806.929575768717</v>
+        <v>1796.134358091883</v>
       </c>
       <c r="W30" t="n">
-        <v>1552.692219040516</v>
+        <v>1541.897001363682</v>
       </c>
       <c r="X30" t="n">
-        <v>1344.840718834983</v>
+        <v>1334.045501158149</v>
       </c>
       <c r="Y30" t="n">
-        <v>1137.080420070029</v>
+        <v>1126.285202393195</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>528.2599392840995</v>
+        <v>706.0343257666989</v>
       </c>
       <c r="C31" t="n">
-        <v>528.2599392840995</v>
+        <v>537.098142838792</v>
       </c>
       <c r="D31" t="n">
-        <v>528.2599392840995</v>
+        <v>386.9815034264564</v>
       </c>
       <c r="E31" t="n">
-        <v>380.3468457017063</v>
+        <v>239.0684098440632</v>
       </c>
       <c r="F31" t="n">
-        <v>233.456898203796</v>
+        <v>239.0684098440632</v>
       </c>
       <c r="G31" t="n">
-        <v>233.456898203796</v>
+        <v>239.0684098440632</v>
       </c>
       <c r="H31" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352145</v>
       </c>
       <c r="I31" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352145</v>
       </c>
       <c r="J31" t="n">
-        <v>142.6677900312341</v>
+        <v>155.0652965289857</v>
       </c>
       <c r="K31" t="n">
-        <v>350.0892078206888</v>
+        <v>383.9450341073846</v>
       </c>
       <c r="L31" t="n">
-        <v>671.0436444994523</v>
+        <v>732.3587322750677</v>
       </c>
       <c r="M31" t="n">
-        <v>1019.834219939071</v>
+        <v>1110.101248882195</v>
       </c>
       <c r="N31" t="n">
-        <v>1365.765951501857</v>
+        <v>1484.296509162297</v>
       </c>
       <c r="O31" t="n">
-        <v>1669.273600758836</v>
+        <v>1813.910101774402</v>
       </c>
       <c r="P31" t="n">
-        <v>1905.456145035927</v>
+        <v>2072.430790532879</v>
       </c>
       <c r="Q31" t="n">
-        <v>1985.541616236686</v>
+        <v>2167.98203509639</v>
       </c>
       <c r="R31" t="n">
-        <v>1985.541616236686</v>
+        <v>2087.980872140233</v>
       </c>
       <c r="S31" t="n">
-        <v>1985.541616236686</v>
+        <v>1900.104684114828</v>
       </c>
       <c r="T31" t="n">
-        <v>1763.903863321684</v>
+        <v>1880.240351787125</v>
       </c>
       <c r="U31" t="n">
-        <v>1474.802641500717</v>
+        <v>1591.149408844373</v>
       </c>
       <c r="V31" t="n">
-        <v>1220.11815329483</v>
+        <v>1336.464920638486</v>
       </c>
       <c r="W31" t="n">
-        <v>930.7009832578693</v>
+        <v>1336.464920638486</v>
       </c>
       <c r="X31" t="n">
-        <v>930.7009832578693</v>
+        <v>1108.475369740469</v>
       </c>
       <c r="Y31" t="n">
-        <v>709.9084041143392</v>
+        <v>887.6827905969386</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2370.762765076596</v>
+        <v>2349.183497290662</v>
       </c>
       <c r="C32" t="n">
-        <v>2001.800248136185</v>
+        <v>1980.22098035025</v>
       </c>
       <c r="D32" t="n">
-        <v>1643.534549529435</v>
+        <v>1621.9552817435</v>
       </c>
       <c r="E32" t="n">
-        <v>1257.74629693119</v>
+        <v>1236.167029145256</v>
       </c>
       <c r="F32" t="n">
-        <v>846.760392141583</v>
+        <v>825.181124355649</v>
       </c>
       <c r="G32" t="n">
-        <v>431.7551769994624</v>
+        <v>410.5960174689199</v>
       </c>
       <c r="H32" t="n">
-        <v>134.8601471839269</v>
+        <v>118.0034213239033</v>
       </c>
       <c r="I32" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352143</v>
       </c>
       <c r="J32" t="n">
-        <v>289.9273857866555</v>
+        <v>324.21348883901</v>
       </c>
       <c r="K32" t="n">
-        <v>632.1291095858073</v>
+        <v>718.7911151545093</v>
       </c>
       <c r="L32" t="n">
-        <v>1507.046971767855</v>
+        <v>1245.20131339725</v>
       </c>
       <c r="M32" t="n">
-        <v>2052.149819384705</v>
+        <v>2238.963264377699</v>
       </c>
       <c r="N32" t="n">
-        <v>3043.660264510175</v>
+        <v>3303.942952554165</v>
       </c>
       <c r="O32" t="n">
-        <v>3934.727824085459</v>
+        <v>3887.393255549933</v>
       </c>
       <c r="P32" t="n">
-        <v>4338.97826660907</v>
+        <v>4350.853589698034</v>
       </c>
       <c r="Q32" t="n">
-        <v>4644.55058595342</v>
+        <v>4650.720252767383</v>
       </c>
       <c r="R32" t="n">
-        <v>4772.76631288012</v>
+        <v>4739.741195676072</v>
       </c>
       <c r="S32" t="n">
-        <v>4664.007762263307</v>
+        <v>4640.55586192897</v>
       </c>
       <c r="T32" t="n">
-        <v>4458.324335916428</v>
+        <v>4436.711459470062</v>
       </c>
       <c r="U32" t="n">
-        <v>4204.799237991295</v>
+        <v>4183.21997020536</v>
       </c>
       <c r="V32" t="n">
-        <v>3873.736350647724</v>
+        <v>3852.15708286179</v>
       </c>
       <c r="W32" t="n">
-        <v>3520.96769537761</v>
+        <v>3499.388427591675</v>
       </c>
       <c r="X32" t="n">
-        <v>3147.50193711653</v>
+        <v>3125.922669330595</v>
       </c>
       <c r="Y32" t="n">
-        <v>2757.362605140718</v>
+        <v>2735.783337354784</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>968.8650830499608</v>
+        <v>958.0698653731266</v>
       </c>
       <c r="C33" t="n">
-        <v>794.4120537688339</v>
+        <v>783.6168360919996</v>
       </c>
       <c r="D33" t="n">
-        <v>645.4776441075826</v>
+        <v>634.6824264307484</v>
       </c>
       <c r="E33" t="n">
-        <v>486.240189102127</v>
+        <v>475.4449714252928</v>
       </c>
       <c r="F33" t="n">
-        <v>339.705631129012</v>
+        <v>328.9104134521778</v>
       </c>
       <c r="G33" t="n">
-        <v>203.3785048649859</v>
+        <v>192.8080649212127</v>
       </c>
       <c r="H33" t="n">
-        <v>113.2240426747367</v>
+        <v>104.8244824160533</v>
       </c>
       <c r="I33" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352143</v>
       </c>
       <c r="J33" t="n">
-        <v>192.4637056891318</v>
+        <v>94.79482391352143</v>
       </c>
       <c r="K33" t="n">
-        <v>379.433643328165</v>
+        <v>270.2482060548554</v>
       </c>
       <c r="L33" t="n">
-        <v>753.7872791352295</v>
+        <v>692.4359734577608</v>
       </c>
       <c r="M33" t="n">
-        <v>1209.997183174057</v>
+        <v>1204.466052878706</v>
       </c>
       <c r="N33" t="n">
-        <v>1692.690250793604</v>
+        <v>1744.456689824619</v>
       </c>
       <c r="O33" t="n">
-        <v>2112.0403107216</v>
+        <v>2216.222831697462</v>
       </c>
       <c r="P33" t="n">
-        <v>2429.272638124885</v>
+        <v>2575.523685944898</v>
       </c>
       <c r="Q33" t="n">
-        <v>2591.414851438367</v>
+        <v>2575.523685944898</v>
       </c>
       <c r="R33" t="n">
-        <v>2591.414851438367</v>
+        <v>2575.523685944898</v>
       </c>
       <c r="S33" t="n">
-        <v>2462.645164408652</v>
+        <v>2450.929146720068</v>
       </c>
       <c r="T33" t="n">
-        <v>2270.147164161876</v>
+        <v>2259.337158476288</v>
       </c>
       <c r="U33" t="n">
-        <v>2042.08168400046</v>
+        <v>2031.286466323626</v>
       </c>
       <c r="V33" t="n">
-        <v>1806.929575768717</v>
+        <v>1796.134358091883</v>
       </c>
       <c r="W33" t="n">
-        <v>1552.692219040516</v>
+        <v>1541.897001363681</v>
       </c>
       <c r="X33" t="n">
-        <v>1344.840718834983</v>
+        <v>1334.045501158148</v>
       </c>
       <c r="Y33" t="n">
-        <v>1137.080420070029</v>
+        <v>1126.285202393195</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>263.1280035707515</v>
+        <v>559.2856420362918</v>
       </c>
       <c r="C34" t="n">
-        <v>263.1280035707515</v>
+        <v>559.2856420362918</v>
       </c>
       <c r="D34" t="n">
-        <v>263.1280035707515</v>
+        <v>409.1690026239561</v>
       </c>
       <c r="E34" t="n">
-        <v>263.1280035707515</v>
+        <v>409.1690026239561</v>
       </c>
       <c r="F34" t="n">
-        <v>263.1280035707515</v>
+        <v>262.2790551260458</v>
       </c>
       <c r="G34" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352143</v>
       </c>
       <c r="H34" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352143</v>
       </c>
       <c r="I34" t="n">
-        <v>95.45532625760239</v>
+        <v>94.79482391352143</v>
       </c>
       <c r="J34" t="n">
-        <v>142.6677900312341</v>
+        <v>155.0652965289858</v>
       </c>
       <c r="K34" t="n">
-        <v>350.0892078206888</v>
+        <v>383.945034107385</v>
       </c>
       <c r="L34" t="n">
-        <v>671.0436444994523</v>
+        <v>732.3587322750689</v>
       </c>
       <c r="M34" t="n">
-        <v>1019.834219939071</v>
+        <v>1110.101248882197</v>
       </c>
       <c r="N34" t="n">
-        <v>1365.765951501857</v>
+        <v>1484.2965091623</v>
       </c>
       <c r="O34" t="n">
-        <v>1669.273600758836</v>
+        <v>1813.910101774405</v>
       </c>
       <c r="P34" t="n">
-        <v>1905.456145035927</v>
+        <v>2072.430790532882</v>
       </c>
       <c r="Q34" t="n">
-        <v>1985.541616236687</v>
+        <v>2167.982035096393</v>
       </c>
       <c r="R34" t="n">
-        <v>1957.911056206503</v>
+        <v>2087.980872140236</v>
       </c>
       <c r="S34" t="n">
-        <v>1766.750766591116</v>
+        <v>1900.104684114831</v>
       </c>
       <c r="T34" t="n">
-        <v>1545.113013676114</v>
+        <v>1679.272109993408</v>
       </c>
       <c r="U34" t="n">
-        <v>1256.011791855146</v>
+        <v>1390.181167050657</v>
       </c>
       <c r="V34" t="n">
-        <v>1001.32730364926</v>
+        <v>1390.181167050657</v>
       </c>
       <c r="W34" t="n">
-        <v>711.910133612299</v>
+        <v>1100.763997013697</v>
       </c>
       <c r="X34" t="n">
-        <v>483.9205827142816</v>
+        <v>961.7266860100616</v>
       </c>
       <c r="Y34" t="n">
-        <v>263.1280035707515</v>
+        <v>740.9341068665316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.55770172968</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.880346994159</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.0053400672746</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
-        <v>380.1331308464047</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9429223347668</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.462702840542</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.467264779579</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.752242696685</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O35" t="n">
-        <v>3652.861230428501</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P35" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q35" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4605.476787028165</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4404.378536570207</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2063585143972</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M36" t="n">
-        <v>965.2247127665249</v>
+        <v>1164.023426718939</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.320676165861</v>
+        <v>1786.119390118276</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.197151166055</v>
+        <v>2332.99586511847</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>747.7393781476339</v>
+        <v>727.0053128151807</v>
       </c>
       <c r="C37" t="n">
-        <v>578.9140930824501</v>
+        <v>558.0691298872738</v>
       </c>
       <c r="D37" t="n">
-        <v>549.4608287447038</v>
+        <v>407.952490474938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.4608287447038</v>
+        <v>407.952490474938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.6817791095165</v>
+        <v>261.0625429770278</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5784821468184</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.9074769327807</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.6448948985992</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>820.5154039769884</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.658243803664</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2430.250342194098</v>
+        <v>2372.670173018246</v>
       </c>
       <c r="S37" t="n">
-        <v>2430.250342194098</v>
+        <v>2189.499982757176</v>
       </c>
       <c r="T37" t="n">
-        <v>2210.682457771203</v>
+        <v>1969.821200471559</v>
       </c>
       <c r="U37" t="n">
-        <v>1921.717141948653</v>
+        <v>1680.744986786285</v>
       </c>
       <c r="V37" t="n">
-        <v>1667.143551605489</v>
+        <v>1426.060498580398</v>
       </c>
       <c r="W37" t="n">
-        <v>1377.837279431252</v>
+        <v>1136.643328543438</v>
       </c>
       <c r="X37" t="n">
-        <v>1149.958626395957</v>
+        <v>908.6537776454204</v>
       </c>
       <c r="Y37" t="n">
-        <v>929.2769451151505</v>
+        <v>908.6537776454204</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.564121551397</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.712502473708</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.557701729681</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.880346994159</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.005340067275</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G38" t="n">
-        <v>380.1331308464047</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3125385470849</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>892.1898736074438</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1511.709654113219</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2232.714216052256</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2969.999193969362</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3652.861230428501</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4201.167179115849</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4564.749365221855</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4605.476787028165</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4404.378536570207</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.04610515248</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.094115671632</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.436358264241</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.081497865884</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.053063752795</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6291563257736</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.1761270446466</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2417173833953</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0042623779398</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.4697044048247</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.6894541647542</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K39" t="n">
-        <v>302.0575440967218</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L39" t="n">
-        <v>792.7898769404732</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M39" t="n">
-        <v>1384.808231192601</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N39" t="n">
-        <v>2006.904194591937</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.780669592131</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.780669592131</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.168964849488</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.875258751902</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.845757276272</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.69364904453</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.456292316328</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.604792110795</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.844493345842</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>496.9316385705121</v>
+        <v>744.6035248193381</v>
       </c>
       <c r="C40" t="n">
-        <v>496.9316385705121</v>
+        <v>575.6673418914314</v>
       </c>
       <c r="D40" t="n">
-        <v>496.9316385705121</v>
+        <v>425.5507024790957</v>
       </c>
       <c r="E40" t="n">
-        <v>496.9316385705121</v>
+        <v>277.6376088967025</v>
       </c>
       <c r="F40" t="n">
-        <v>402.6817791095164</v>
+        <v>130.7476613987921</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5784821468184</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.9074769327806</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K40" t="n">
-        <v>432.6448948985993</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L40" t="n">
-        <v>820.5154039769884</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.853687016703</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.658243803665</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.789391813949</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P40" t="n">
-        <v>2312.428517645408</v>
+        <v>2311.699365782259</v>
       </c>
       <c r="Q40" t="n">
-        <v>2430.250342194098</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="R40" t="n">
-        <v>2362.501895015323</v>
+        <v>2429.412499335694</v>
       </c>
       <c r="S40" t="n">
-        <v>2179.442602616976</v>
+        <v>2246.242309074624</v>
       </c>
       <c r="T40" t="n">
-        <v>1959.874718194081</v>
+        <v>2026.563526789006</v>
       </c>
       <c r="U40" t="n">
-        <v>1670.909402371532</v>
+        <v>1737.487313103733</v>
       </c>
       <c r="V40" t="n">
-        <v>1416.335812028368</v>
+        <v>1482.802824897846</v>
       </c>
       <c r="W40" t="n">
-        <v>1127.02953985413</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X40" t="n">
-        <v>899.1508868188359</v>
+        <v>965.3961039628682</v>
       </c>
       <c r="Y40" t="n">
-        <v>678.469205538029</v>
+        <v>744.6035248193381</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>241.7614417340001</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.3991132778466</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9460839967196</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0116743354683</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2548.787259636257</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.850501963388</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>921.9831621891592</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>778.3953859427377</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>653.6271532118874</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>531.0624663109797</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>409.5209254945548</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>267.655137350619</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.1308270705348</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>197.6744444296848</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>482.1471447887723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>894.7529362604305</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1338.826501693414</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1778.366340873644</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2170.232771277198</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2485.607179501926</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2628.164286443885</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2585.653348083871</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2427.831564504287</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532432</v>
+        <v>2233.501188900154</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1969.773381896367</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1740.437300371966</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1476.368537016491</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1273.727392799959</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1078.283220337913</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8231,7 +8231,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8939,16 +8939,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400235</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>67.53663776704263</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>170.1140909277296</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>297.8289162490807</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9416,7 +9416,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9638,19 +9638,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>136.2499899971294</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,19 +9872,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>315.92996176012</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>367.9947440553924</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>399.6244471976894</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>367.9947440554025</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,25 +10352,25 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>380.1613531362401</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>50.67658487732575</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,10 +10595,10 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O35" t="n">
-        <v>49.74439522492628</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>49.74439522492634</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>44.27389405238037</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>3.556976973657157</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>24.01601533131073</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>16.14213605696614</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23938,13 +23938,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>278.4812891566653</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>120.409631766668</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>16.14213605696654</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>164.7576090751788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>52.77216054947226</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.6576838054103</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>72.4115853958249</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.4895526489372</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>89.84410006124563</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>79.20115132659559</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>185.9974261451505</v>
       </c>
       <c r="T28" t="n">
-        <v>219.4213753858519</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>261.5215568079979</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.9959505400178</v>
+        <v>165.8093889003991</v>
       </c>
       <c r="H31" t="n">
-        <v>7.867996422205646</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>95.45451736905207</v>
+        <v>89.84410006124571</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.58964104981527</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.2486867192331</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>198.958559375782</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.4895526489373</v>
+        <v>142.8308500712363</v>
       </c>
       <c r="I34" t="n">
-        <v>95.45451736905207</v>
+        <v>89.84410006124563</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>60.23538661993312</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>88.06271749543845</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>119.3469524397479</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.3241737624733</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.69478786031317</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.0709627069877</v>
+        <v>11.00584853681041</v>
       </c>
       <c r="S37" t="n">
-        <v>181.2286994743631</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25546,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.137032214532</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.5056841341165</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.3241737624733</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>52.0038982724497</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>129.0117327624537</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.69478786031317</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>65.06136363537632</v>
       </c>
       <c r="E43" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894406.6252187749</v>
+        <v>894406.6252187748</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>894234.8556825896</v>
+        <v>893161.5785747124</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894234.8556825895</v>
+        <v>893161.5785747125</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894234.8556825896</v>
+        <v>893161.5785747124</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>891673.9875069329</v>
+        <v>891623.6116355686</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>891673.9875069329</v>
+        <v>891623.6116355687</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>906805.6106407859</v>
+        <v>891623.6116355687</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>906805.6106407859</v>
+        <v>907418.2836558652</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26314,19 @@
         <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117846</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530783</v>
       </c>
       <c r="F2" t="n">
         <v>516206.3229530784</v>
       </c>
       <c r="G2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="H2" t="n">
         <v>516206.3229530781</v>
@@ -26335,25 +26335,25 @@
         <v>516206.3229530784</v>
       </c>
       <c r="J2" t="n">
-        <v>516708.5820427274</v>
+        <v>519846.8753345118</v>
       </c>
       <c r="K2" t="n">
-        <v>516708.5820427273</v>
+        <v>519846.875334512</v>
       </c>
       <c r="L2" t="n">
-        <v>516708.5820427272</v>
+        <v>519846.8753345117</v>
       </c>
       <c r="M2" t="n">
-        <v>524384.767422379</v>
+        <v>524343.9351270635</v>
       </c>
       <c r="N2" t="n">
-        <v>524384.767422379</v>
+        <v>524343.9351270634</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117838</v>
+        <v>524343.9351270633</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.1504117837</v>
       </c>
     </row>
     <row r="3">
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>188326.5569062052</v>
+        <v>262702.841310636</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.300672010984272e-09</v>
       </c>
       <c r="M3" t="n">
-        <v>301644.0330792131</v>
+        <v>230954.0530037269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>26069.04730145365</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>20075.93809173644</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="F4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709185</v>
       </c>
       <c r="G4" t="n">
-        <v>21619.60799709183</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="H4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709188</v>
       </c>
       <c r="J4" t="n">
-        <v>20598.1365638603</v>
+        <v>14215.67796947057</v>
       </c>
       <c r="K4" t="n">
-        <v>20598.13656386044</v>
+        <v>14215.67796947071</v>
       </c>
       <c r="L4" t="n">
-        <v>20598.13656386044</v>
+        <v>14215.67796947058</v>
       </c>
       <c r="M4" t="n">
-        <v>5156.96221767491</v>
+        <v>5069.915760662971</v>
       </c>
       <c r="N4" t="n">
-        <v>5156.962217674911</v>
+        <v>5069.91576066292</v>
       </c>
       <c r="O4" t="n">
-        <v>12448.50789975162</v>
+        <v>5069.91576066296</v>
       </c>
       <c r="P4" t="n">
-        <v>12448.50789975161</v>
+        <v>13327.3959195899</v>
       </c>
     </row>
     <row r="5">
@@ -26491,25 +26491,25 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96664.13270816678</v>
+        <v>98417.51154816494</v>
       </c>
       <c r="K5" t="n">
-        <v>96664.13270816676</v>
+        <v>98417.51154816491</v>
       </c>
       <c r="L5" t="n">
-        <v>96664.13270816676</v>
+        <v>98417.51154816493</v>
       </c>
       <c r="M5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
-        <v>100915.1886201729</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>103164.1158539154</v>
+        <v>103039.7445065313</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-331356.4032585993</v>
       </c>
       <c r="C6" t="n">
-        <v>258611.4759559451</v>
+        <v>258611.4759559454</v>
       </c>
       <c r="D6" t="n">
-        <v>258611.4759559455</v>
+        <v>258611.4759559453</v>
       </c>
       <c r="E6" t="n">
-        <v>-329174.2172911342</v>
+        <v>-329241.4127813599</v>
       </c>
       <c r="F6" t="n">
-        <v>398203.1967022729</v>
+        <v>398136.0012120471</v>
       </c>
       <c r="G6" t="n">
-        <v>398203.1967022727</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="H6" t="n">
-        <v>398203.1967022726</v>
+        <v>398136.0012120468</v>
       </c>
       <c r="I6" t="n">
-        <v>398203.1967022728</v>
+        <v>398136.001212047</v>
       </c>
       <c r="J6" t="n">
-        <v>211119.7558644952</v>
+        <v>144457.6511405584</v>
       </c>
       <c r="K6" t="n">
-        <v>399446.3127707017</v>
+        <v>407160.4924511946</v>
       </c>
       <c r="L6" t="n">
-        <v>399446.3127707</v>
+        <v>407160.4924511932</v>
       </c>
       <c r="M6" t="n">
-        <v>116668.5835053181</v>
+        <v>187354.0299235707</v>
       </c>
       <c r="N6" t="n">
-        <v>418312.6165845311</v>
+        <v>418308.0829272976</v>
       </c>
       <c r="O6" t="n">
-        <v>391995.4793566632</v>
+        <v>418308.0829272975</v>
       </c>
       <c r="P6" t="n">
-        <v>418064.5266581175</v>
+        <v>397234.0718939261</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="3">
@@ -26747,7 +26747,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26759,13 +26759,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1106.334162953623</v>
+        <v>1209.791072196727</v>
       </c>
       <c r="K3" t="n">
-        <v>1106.334162953621</v>
+        <v>1209.791072196725</v>
       </c>
       <c r="L3" t="n">
-        <v>1106.334162953621</v>
+        <v>1209.791072196727</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26774,10 +26774,10 @@
         <v>1358.041048716386</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26811,25 +26811,25 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1193.19157822003</v>
+        <v>1184.935298919018</v>
       </c>
       <c r="K4" t="n">
-        <v>1193.19157822003</v>
+        <v>1184.935298919018</v>
       </c>
       <c r="L4" t="n">
-        <v>1193.19157822003</v>
+        <v>1184.935298919018</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099648</v>
+        <v>1173.104351895088</v>
       </c>
     </row>
   </sheetData>
@@ -26938,16 +26938,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.1748586079439</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
     <row r="3">
@@ -26981,22 +26981,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>16.55746236032496</v>
+        <v>120.0143716034283</v>
       </c>
       <c r="K3" t="n">
-        <v>-1.038162723739159e-12</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.818989403545856e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>251.7068857627648</v>
+        <v>148.249976519659</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>672.9659203696551</v>
+        <v>664.7096410686436</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7423677299932</v>
+        <v>508.3947108264447</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,10 +27382,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>58.44186903370947</v>
       </c>
       <c r="T2" t="n">
-        <v>179.6437835901887</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>128.0571403890127</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27619,22 +27619,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>190.7623767421583</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>393.2545171770619</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866331</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27828,19 +27828,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>23.98522015752724</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>317.9393845730382</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.1166467971028</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-6.19453681883115e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1097888840958375</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.1097888840958375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>25.09492261467055</v>
       </c>
     </row>
   </sheetData>
@@ -31838,7 +31838,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
         <v>44.86703772844668</v>
@@ -31996,40 +31996,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32148,43 +32148,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780295</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32321,7 +32321,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
         <v>609.6478166837925</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32570,7 +32570,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.447574524436673</v>
+        <v>4.86348169727327</v>
       </c>
       <c r="H26" t="n">
-        <v>45.54872259838709</v>
+        <v>49.80813193219988</v>
       </c>
       <c r="I26" t="n">
-        <v>171.465116853345</v>
+        <v>187.4993781341279</v>
       </c>
       <c r="J26" t="n">
-        <v>377.4823282934074</v>
+        <v>412.7819297039475</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7481579128118</v>
+        <v>618.6531099495252</v>
       </c>
       <c r="L26" t="n">
-        <v>701.8606167650408</v>
+        <v>767.4938879424521</v>
       </c>
       <c r="M26" t="n">
-        <v>780.9551702139916</v>
+        <v>853.9848305763355</v>
       </c>
       <c r="N26" t="n">
-        <v>793.5918413315474</v>
+        <v>867.8031979487133</v>
       </c>
       <c r="O26" t="n">
-        <v>749.3662721541801</v>
+        <v>819.4419518214522</v>
       </c>
       <c r="P26" t="n">
-        <v>639.5667760821497</v>
+        <v>699.3747474200183</v>
       </c>
       <c r="Q26" t="n">
-        <v>480.2880134257611</v>
+        <v>525.2013091364191</v>
       </c>
       <c r="R26" t="n">
-        <v>279.3799532206454</v>
+        <v>305.5056821663423</v>
       </c>
       <c r="S26" t="n">
-        <v>101.3491044756008</v>
+        <v>110.8265891766147</v>
       </c>
       <c r="T26" t="n">
-        <v>19.46925748072155</v>
+        <v>21.28989112981375</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3558059619549337</v>
+        <v>0.3890785357818615</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.379662161824775</v>
+        <v>2.602192117555223</v>
       </c>
       <c r="H27" t="n">
-        <v>22.9825266681498</v>
+        <v>25.13169755638861</v>
       </c>
       <c r="I27" t="n">
-        <v>81.9313507470372</v>
+        <v>89.59301808249344</v>
       </c>
       <c r="J27" t="n">
-        <v>224.825888718717</v>
+        <v>245.8500894923556</v>
       </c>
       <c r="K27" t="n">
-        <v>384.2632535609769</v>
+        <v>420.1969613685555</v>
       </c>
       <c r="L27" t="n">
-        <v>516.6893654435767</v>
+        <v>148.6785562973151</v>
       </c>
       <c r="M27" t="n">
-        <v>602.9521188097247</v>
+        <v>659.336134347216</v>
       </c>
       <c r="N27" t="n">
-        <v>618.9104672545935</v>
+        <v>676.7867999074878</v>
       </c>
       <c r="O27" t="n">
-        <v>566.1821635636339</v>
+        <v>619.1277008816588</v>
       </c>
       <c r="P27" t="n">
-        <v>454.4111017610836</v>
+        <v>496.9045632198216</v>
       </c>
       <c r="Q27" t="n">
-        <v>246.1984958150685</v>
+        <v>332.1675411812598</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>44.20118094442068</v>
+        <v>48.33457727125598</v>
       </c>
       <c r="T27" t="n">
-        <v>9.591708450513014</v>
+        <v>10.48866033347916</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1565567211726826</v>
+        <v>0.1711968498391595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.99502881844096</v>
+        <v>2.181590458059671</v>
       </c>
       <c r="H28" t="n">
-        <v>17.73761985850236</v>
+        <v>19.39632243620327</v>
       </c>
       <c r="I28" t="n">
-        <v>59.99595755820634</v>
+        <v>65.60637486601266</v>
       </c>
       <c r="J28" t="n">
-        <v>141.0485374637759</v>
+        <v>154.2384453848187</v>
       </c>
       <c r="K28" t="n">
-        <v>231.7860754515951</v>
+        <v>253.4611459454781</v>
       </c>
       <c r="L28" t="n">
-        <v>296.6063754253042</v>
+        <v>324.3430031918896</v>
       </c>
       <c r="M28" t="n">
-        <v>312.7298356034315</v>
+        <v>341.9742206211172</v>
       </c>
       <c r="N28" t="n">
-        <v>305.2938190983336</v>
+        <v>333.8428380047133</v>
       </c>
       <c r="O28" t="n">
-        <v>281.9882551738187</v>
+        <v>308.3578949264707</v>
       </c>
       <c r="P28" t="n">
-        <v>241.2896672776229</v>
+        <v>263.8534495820531</v>
       </c>
       <c r="Q28" t="n">
-        <v>167.0564586059971</v>
+        <v>182.6784519017057</v>
       </c>
       <c r="R28" t="n">
-        <v>89.7037503273544</v>
+        <v>98.09224005057389</v>
       </c>
       <c r="S28" t="n">
-        <v>34.76791131773926</v>
+        <v>38.01917189182171</v>
       </c>
       <c r="T28" t="n">
-        <v>8.524214042429554</v>
+        <v>9.321341048073137</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1088197537331434</v>
+        <v>0.1189958431668913</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.447574524436664</v>
+        <v>4.863481697273262</v>
       </c>
       <c r="H29" t="n">
-        <v>45.54872259838699</v>
+        <v>49.80813193219981</v>
       </c>
       <c r="I29" t="n">
-        <v>171.4651168533447</v>
+        <v>187.4993781341276</v>
       </c>
       <c r="J29" t="n">
-        <v>377.4823282934066</v>
+        <v>412.7819297039469</v>
       </c>
       <c r="K29" t="n">
-        <v>565.7481579128107</v>
+        <v>618.6531099495242</v>
       </c>
       <c r="L29" t="n">
-        <v>701.8606167650395</v>
+        <v>767.4938879424509</v>
       </c>
       <c r="M29" t="n">
-        <v>780.95517021399</v>
+        <v>853.9848305763343</v>
       </c>
       <c r="N29" t="n">
-        <v>793.5918413315457</v>
+        <v>867.803197948712</v>
       </c>
       <c r="O29" t="n">
-        <v>749.3662721541785</v>
+        <v>819.441951821451</v>
       </c>
       <c r="P29" t="n">
-        <v>639.5667760821483</v>
+        <v>699.3747474200172</v>
       </c>
       <c r="Q29" t="n">
-        <v>480.2880134257601</v>
+        <v>525.2013091364183</v>
       </c>
       <c r="R29" t="n">
-        <v>279.3799532206448</v>
+        <v>305.5056821663418</v>
       </c>
       <c r="S29" t="n">
-        <v>101.3491044756006</v>
+        <v>110.8265891766146</v>
       </c>
       <c r="T29" t="n">
-        <v>19.46925748072151</v>
+        <v>21.28989112981371</v>
       </c>
       <c r="U29" t="n">
-        <v>0.355805961954933</v>
+        <v>0.3890785357818609</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.37966216182477</v>
+        <v>2.602192117555219</v>
       </c>
       <c r="H30" t="n">
-        <v>22.98252666814975</v>
+        <v>25.13169755638857</v>
       </c>
       <c r="I30" t="n">
-        <v>81.93135074703704</v>
+        <v>89.59301808249332</v>
       </c>
       <c r="J30" t="n">
-        <v>224.8258887187166</v>
+        <v>245.8500894923552</v>
       </c>
       <c r="K30" t="n">
-        <v>384.2632535609761</v>
+        <v>420.1969613685549</v>
       </c>
       <c r="L30" t="n">
-        <v>516.6893654435756</v>
+        <v>565.0066700858384</v>
       </c>
       <c r="M30" t="n">
-        <v>602.9521188097234</v>
+        <v>659.336134347215</v>
       </c>
       <c r="N30" t="n">
-        <v>618.9104672545922</v>
+        <v>676.7867999074867</v>
       </c>
       <c r="O30" t="n">
-        <v>566.1821635636328</v>
+        <v>619.1277008816578</v>
       </c>
       <c r="P30" t="n">
-        <v>396.8478100421756</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>303.7617875339829</v>
+        <v>278.7695831982329</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>44.20118094442059</v>
+        <v>48.33457727125591</v>
       </c>
       <c r="T30" t="n">
-        <v>9.591708450512995</v>
+        <v>10.48866033347915</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1565567211726823</v>
+        <v>0.1711968498391593</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.995028818440956</v>
+        <v>2.181590458059667</v>
       </c>
       <c r="H31" t="n">
-        <v>17.73761985850233</v>
+        <v>19.39632243620324</v>
       </c>
       <c r="I31" t="n">
-        <v>59.99595755820621</v>
+        <v>65.60637486601257</v>
       </c>
       <c r="J31" t="n">
-        <v>141.0485374637755</v>
+        <v>154.2384453848185</v>
       </c>
       <c r="K31" t="n">
-        <v>231.7860754515946</v>
+        <v>253.4611459454777</v>
       </c>
       <c r="L31" t="n">
-        <v>296.6063754253036</v>
+        <v>324.3430031918892</v>
       </c>
       <c r="M31" t="n">
-        <v>312.7298356034308</v>
+        <v>341.9742206211167</v>
       </c>
       <c r="N31" t="n">
-        <v>305.293819098333</v>
+        <v>333.8428380047128</v>
       </c>
       <c r="O31" t="n">
-        <v>281.9882551738181</v>
+        <v>308.3578949264702</v>
       </c>
       <c r="P31" t="n">
-        <v>241.2896672776224</v>
+        <v>263.8534495820527</v>
       </c>
       <c r="Q31" t="n">
-        <v>167.0564586059968</v>
+        <v>182.6784519017054</v>
       </c>
       <c r="R31" t="n">
-        <v>89.70375032735421</v>
+        <v>98.09224005057375</v>
       </c>
       <c r="S31" t="n">
-        <v>34.76791131773919</v>
+        <v>38.01917189182165</v>
       </c>
       <c r="T31" t="n">
-        <v>8.524214042429536</v>
+        <v>9.321341048073123</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1088197537331432</v>
+        <v>0.1189958431668911</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.447574524436664</v>
+        <v>4.86348169727327</v>
       </c>
       <c r="H32" t="n">
-        <v>45.54872259838699</v>
+        <v>49.80813193219988</v>
       </c>
       <c r="I32" t="n">
-        <v>171.4651168533447</v>
+        <v>187.4993781341279</v>
       </c>
       <c r="J32" t="n">
-        <v>377.4823282934066</v>
+        <v>412.7819297039475</v>
       </c>
       <c r="K32" t="n">
-        <v>565.7481579128107</v>
+        <v>618.6531099495252</v>
       </c>
       <c r="L32" t="n">
-        <v>701.8606167650395</v>
+        <v>767.4938879424521</v>
       </c>
       <c r="M32" t="n">
-        <v>780.95517021399</v>
+        <v>853.9848305763355</v>
       </c>
       <c r="N32" t="n">
-        <v>793.5918413315457</v>
+        <v>867.8031979487133</v>
       </c>
       <c r="O32" t="n">
-        <v>749.3662721541785</v>
+        <v>819.4419518214522</v>
       </c>
       <c r="P32" t="n">
-        <v>639.5667760821483</v>
+        <v>699.3747474200183</v>
       </c>
       <c r="Q32" t="n">
-        <v>480.2880134257601</v>
+        <v>525.2013091364191</v>
       </c>
       <c r="R32" t="n">
-        <v>279.3799532206448</v>
+        <v>305.5056821663423</v>
       </c>
       <c r="S32" t="n">
-        <v>101.3491044756006</v>
+        <v>110.8265891766147</v>
       </c>
       <c r="T32" t="n">
-        <v>19.46925748072151</v>
+        <v>21.28989112981375</v>
       </c>
       <c r="U32" t="n">
-        <v>0.355805961954933</v>
+        <v>0.3890785357818615</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.37966216182477</v>
+        <v>2.602192117555223</v>
       </c>
       <c r="H33" t="n">
-        <v>22.98252666814975</v>
+        <v>25.13169755638861</v>
       </c>
       <c r="I33" t="n">
-        <v>81.93135074703704</v>
+        <v>89.59301808249344</v>
       </c>
       <c r="J33" t="n">
-        <v>224.8258887187166</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.6999618420693</v>
+        <v>315.0670775009589</v>
       </c>
       <c r="L33" t="n">
-        <v>516.6893654435756</v>
+        <v>565.0066700858392</v>
       </c>
       <c r="M33" t="n">
-        <v>602.9521188097234</v>
+        <v>659.336134347216</v>
       </c>
       <c r="N33" t="n">
-        <v>618.9104672545922</v>
+        <v>676.7867999074878</v>
       </c>
       <c r="O33" t="n">
-        <v>566.1821635636328</v>
+        <v>619.1277008816588</v>
       </c>
       <c r="P33" t="n">
-        <v>454.4111017610826</v>
+        <v>496.9045632198216</v>
       </c>
       <c r="Q33" t="n">
-        <v>303.7617875339829</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>44.20118094442059</v>
+        <v>48.33457727125598</v>
       </c>
       <c r="T33" t="n">
-        <v>9.591708450512995</v>
+        <v>10.48866033347916</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1565567211726823</v>
+        <v>0.1711968498391595</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.995028818440956</v>
+        <v>2.181590458059671</v>
       </c>
       <c r="H34" t="n">
-        <v>17.73761985850233</v>
+        <v>19.39632243620327</v>
       </c>
       <c r="I34" t="n">
-        <v>59.99595755820621</v>
+        <v>65.60637486601266</v>
       </c>
       <c r="J34" t="n">
-        <v>141.0485374637755</v>
+        <v>154.2384453848187</v>
       </c>
       <c r="K34" t="n">
-        <v>231.7860754515946</v>
+        <v>253.4611459454781</v>
       </c>
       <c r="L34" t="n">
-        <v>296.6063754253036</v>
+        <v>324.3430031918896</v>
       </c>
       <c r="M34" t="n">
-        <v>312.7298356034308</v>
+        <v>341.9742206211172</v>
       </c>
       <c r="N34" t="n">
-        <v>305.293819098333</v>
+        <v>333.8428380047133</v>
       </c>
       <c r="O34" t="n">
-        <v>281.9882551738181</v>
+        <v>308.3578949264707</v>
       </c>
       <c r="P34" t="n">
-        <v>241.2896672776224</v>
+        <v>263.8534495820531</v>
       </c>
       <c r="Q34" t="n">
-        <v>167.0564586059968</v>
+        <v>182.6784519017057</v>
       </c>
       <c r="R34" t="n">
-        <v>89.70375032735421</v>
+        <v>98.09224005057389</v>
       </c>
       <c r="S34" t="n">
-        <v>34.76791131773919</v>
+        <v>38.01917189182171</v>
       </c>
       <c r="T34" t="n">
-        <v>8.524214042429536</v>
+        <v>9.321341048073137</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1088197537331432</v>
+        <v>0.1189958431668913</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,31 +33728,31 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>420.766193382324</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>357.0213665833166</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,10 +33761,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
         <v>383.8803574265022</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,7 +33965,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,22 +33974,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>348.1857632660256</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>420.7661933823242</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,10 +33998,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>446.0127311990643</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>254.1890314243787</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>145.0576276814857</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,10 +35261,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427827</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230594</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282428</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037196</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222484</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>94.62350453597716</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35896,7 +35896,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>575.5896386552618</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35905,7 +35905,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35969,7 +35969,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
         <v>478.3061046004592</v>
@@ -36121,13 +36121,13 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>507.3053774831301</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>753.4190306414129</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
         <v>989.6487598248956</v>
@@ -36136,7 +36136,7 @@
         <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36218,7 +36218,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,19 +36358,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>473.4412765525299</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
@@ -36379,7 +36379,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>365.5330389387949</v>
+        <v>231.7360251772612</v>
       </c>
       <c r="K26" t="n">
-        <v>661.5882686279513</v>
+        <v>398.5632589045446</v>
       </c>
       <c r="L26" t="n">
-        <v>883.755416345504</v>
+        <v>531.727472972465</v>
       </c>
       <c r="M26" t="n">
-        <v>1000.122470479551</v>
+        <v>1073.152130841895</v>
       </c>
       <c r="N26" t="n">
-        <v>564.1787777349564</v>
+        <v>1006.384878407515</v>
       </c>
       <c r="O26" t="n">
-        <v>519.2680607324934</v>
+        <v>589.3437403997655</v>
       </c>
       <c r="P26" t="n">
-        <v>408.3337803268801</v>
+        <v>468.1417516647487</v>
       </c>
       <c r="Q26" t="n">
-        <v>257.9823235513117</v>
+        <v>302.8956192619696</v>
       </c>
       <c r="R26" t="n">
-        <v>63.79441540651328</v>
+        <v>89.92014435221017</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>97.98826205205032</v>
+        <v>119.0124628256889</v>
       </c>
       <c r="K27" t="n">
-        <v>246.4218145866179</v>
+        <v>282.3555223941966</v>
       </c>
       <c r="L27" t="n">
-        <v>378.1349856637025</v>
+        <v>10.12417651744086</v>
       </c>
       <c r="M27" t="n">
-        <v>460.8180848877063</v>
+        <v>517.2021004251976</v>
       </c>
       <c r="N27" t="n">
-        <v>487.5687551712602</v>
+        <v>545.4450878241545</v>
       </c>
       <c r="O27" t="n">
-        <v>423.5859191191895</v>
+        <v>476.5314564372144</v>
       </c>
       <c r="P27" t="n">
-        <v>320.4366943467533</v>
+        <v>362.9301558054914</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.216721729047</v>
+        <v>192.1857670952382</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>47.68935734710308</v>
+        <v>60.87926526814593</v>
       </c>
       <c r="K28" t="n">
-        <v>209.5165836257122</v>
+        <v>231.1916541195952</v>
       </c>
       <c r="L28" t="n">
-        <v>324.1964006856203</v>
+        <v>351.9330284522058</v>
       </c>
       <c r="M28" t="n">
-        <v>352.3137125652721</v>
+        <v>381.5580975829578</v>
       </c>
       <c r="N28" t="n">
-        <v>349.4259914775622</v>
+        <v>377.9750103839419</v>
       </c>
       <c r="O28" t="n">
-        <v>306.5733830878584</v>
+        <v>332.9430228405104</v>
       </c>
       <c r="P28" t="n">
-        <v>238.5682265425164</v>
+        <v>261.1320088469466</v>
       </c>
       <c r="Q28" t="n">
-        <v>80.89441535430272</v>
+        <v>96.51640865001134</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>196.4364237667203</v>
+        <v>231.7360251772606</v>
       </c>
       <c r="K29" t="n">
-        <v>345.6583068678302</v>
+        <v>398.5632589045436</v>
       </c>
       <c r="L29" t="n">
-        <v>865.7186489927417</v>
+        <v>531.7274729724636</v>
       </c>
       <c r="M29" t="n">
-        <v>1000.12247047955</v>
+        <v>1073.152130841894</v>
       </c>
       <c r="N29" t="n">
-        <v>1001.525702146939</v>
+        <v>1006.384878407524</v>
       </c>
       <c r="O29" t="n">
-        <v>519.2680607324918</v>
+        <v>589.3437403997642</v>
       </c>
       <c r="P29" t="n">
-        <v>408.3337803268788</v>
+        <v>468.1417516647477</v>
       </c>
       <c r="Q29" t="n">
-        <v>257.9823235513106</v>
+        <v>302.8956192619688</v>
       </c>
       <c r="R29" t="n">
-        <v>129.5108352794952</v>
+        <v>89.92014435220966</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>97.98826205204986</v>
+        <v>119.0124628256885</v>
       </c>
       <c r="K30" t="n">
-        <v>246.4218145866171</v>
+        <v>282.3555223941959</v>
       </c>
       <c r="L30" t="n">
-        <v>378.1349856637015</v>
+        <v>426.4522903059643</v>
       </c>
       <c r="M30" t="n">
-        <v>460.8180848877051</v>
+        <v>517.2021004251967</v>
       </c>
       <c r="N30" t="n">
-        <v>487.5687551712589</v>
+        <v>545.4450878241535</v>
       </c>
       <c r="O30" t="n">
-        <v>423.5859191191884</v>
+        <v>476.5314564372134</v>
       </c>
       <c r="P30" t="n">
-        <v>262.8734026278453</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>163.7800134479614</v>
+        <v>138.7878091122114</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>47.68935734710277</v>
+        <v>60.8792652681457</v>
       </c>
       <c r="K31" t="n">
-        <v>209.5165836257118</v>
+        <v>231.1916541195948</v>
       </c>
       <c r="L31" t="n">
-        <v>324.1964006856198</v>
+        <v>351.9330284522053</v>
       </c>
       <c r="M31" t="n">
-        <v>352.3137125652714</v>
+        <v>381.5580975829573</v>
       </c>
       <c r="N31" t="n">
-        <v>349.4259914775616</v>
+        <v>377.9750103839414</v>
       </c>
       <c r="O31" t="n">
-        <v>306.5733830878578</v>
+        <v>332.9430228405099</v>
       </c>
       <c r="P31" t="n">
-        <v>238.5682265425159</v>
+        <v>261.1320088469462</v>
       </c>
       <c r="Q31" t="n">
-        <v>80.89441535430238</v>
+        <v>96.51640865001106</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>196.4364237667203</v>
+        <v>231.7360251772612</v>
       </c>
       <c r="K32" t="n">
-        <v>345.6583068678302</v>
+        <v>398.5632589045446</v>
       </c>
       <c r="L32" t="n">
-        <v>883.7554163455027</v>
+        <v>531.727472972465</v>
       </c>
       <c r="M32" t="n">
-        <v>550.6089369867173</v>
+        <v>1003.799950485303</v>
       </c>
       <c r="N32" t="n">
-        <v>1001.525702146939</v>
+        <v>1075.737058764107</v>
       </c>
       <c r="O32" t="n">
-        <v>900.0682419952371</v>
+        <v>589.3437403997655</v>
       </c>
       <c r="P32" t="n">
-        <v>408.3337803268788</v>
+        <v>468.1417516647487</v>
       </c>
       <c r="Q32" t="n">
-        <v>308.6589084286364</v>
+        <v>302.8956192619696</v>
       </c>
       <c r="R32" t="n">
-        <v>129.5108352794952</v>
+        <v>89.92014435221017</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>97.98826205204986</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.8585228677104</v>
+        <v>177.2256385266</v>
       </c>
       <c r="L33" t="n">
-        <v>378.1349856637015</v>
+        <v>426.4522903059651</v>
       </c>
       <c r="M33" t="n">
-        <v>460.8180848877051</v>
+        <v>517.2021004251976</v>
       </c>
       <c r="N33" t="n">
-        <v>487.5687551712589</v>
+        <v>545.4450878241545</v>
       </c>
       <c r="O33" t="n">
-        <v>423.5859191191884</v>
+        <v>476.5314564372144</v>
       </c>
       <c r="P33" t="n">
-        <v>320.4366943467523</v>
+        <v>362.9301558054914</v>
       </c>
       <c r="Q33" t="n">
-        <v>163.7800134479614</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>47.68935734710277</v>
+        <v>60.87926526814593</v>
       </c>
       <c r="K34" t="n">
-        <v>209.5165836257118</v>
+        <v>231.1916541195952</v>
       </c>
       <c r="L34" t="n">
-        <v>324.1964006856198</v>
+        <v>351.9330284522058</v>
       </c>
       <c r="M34" t="n">
-        <v>352.3137125652714</v>
+        <v>381.5580975829578</v>
       </c>
       <c r="N34" t="n">
-        <v>349.4259914775616</v>
+        <v>377.9750103839419</v>
       </c>
       <c r="O34" t="n">
-        <v>306.5733830878578</v>
+        <v>332.9430228405104</v>
       </c>
       <c r="P34" t="n">
-        <v>238.5682265425159</v>
+        <v>261.1320088469466</v>
       </c>
       <c r="Q34" t="n">
-        <v>80.89441535430238</v>
+        <v>96.51640865001134</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O35" t="n">
-        <v>739.5040280119348</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>282.2118136024498</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>223.0469591689864</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.88971099475636</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L37" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N37" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.8395434447318</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.5748745772318</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q37" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>524.1185202629889</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>210.3443242916666</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>282.21181360245</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.88971099475636</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
-        <v>262.3610282483016</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L40" t="n">
-        <v>391.7883930084739</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.5740232724386</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
-        <v>418.9945018050119</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.8395434447318</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5748745772318</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>119.0119439885757</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>303.8786972770459</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>122.8473193410454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>5.07585359546421</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>104.874844725331</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>287.3461619788763</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>416.7735267390486</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>448.5591570030133</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>443.9796355355866</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>395.8246771753065</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>318.5600083078064</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>143.9970777191504</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
